--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shurik\Dropbox\Robotics\github\logicbits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680E82FD-3C52-496E-ABD4-39E57F70946B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C7D96D-C447-4A6D-A3E2-EE6DAF2AEA7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{F8763408-5542-45D1-81EF-C240F4AD03E8}"/>
+    <workbookView xWindow="340" yWindow="1540" windowWidth="15900" windowHeight="9160" xr2:uid="{F8763408-5542-45D1-81EF-C240F4AD03E8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Electronic components" sheetId="1" r:id="rId1"/>
+    <sheet name="Other" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -205,6 +206,60 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>1 kOhm</t>
+  </si>
+  <si>
+    <t>RC0603FR-071KL</t>
+  </si>
+  <si>
+    <t>C22548</t>
+  </si>
+  <si>
+    <t>1 uF</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R8BB105</t>
+  </si>
+  <si>
+    <t>C106858</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t># pieces per package</t>
+  </si>
+  <si>
+    <t># packages required for 5 kits</t>
+  </si>
+  <si>
+    <t>for 5 kits</t>
+  </si>
+  <si>
+    <t>3-pin male to male servo connectors, 10cm</t>
+  </si>
+  <si>
+    <t>18mm diameter ceramic magnets</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B016RJ8S42</t>
+  </si>
+  <si>
+    <t>3-pin male to male servo connectors, 20cm</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B071P448DL</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B07Y46XG8D</t>
+  </si>
+  <si>
+    <t>Breakaway SMD male headers, 40pins, single row</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32795058236.html</t>
   </si>
 </sst>
 </file>
@@ -283,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -295,11 +350,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -307,11 +360,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -629,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F24C5D-7314-404A-8AC2-3BD7FC5A1E33}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -641,26 +699,26 @@
     <col min="4" max="4" width="20.90625" customWidth="1"/>
     <col min="5" max="5" width="21.1796875" customWidth="1"/>
     <col min="7" max="12" width="6.08984375" customWidth="1"/>
-    <col min="13" max="13" width="16.81640625" customWidth="1"/>
+    <col min="13" max="13" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>55</v>
       </c>
       <c r="G1" s="7" t="s">
@@ -671,22 +729,22 @@
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="8"/>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="12"/>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
       <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
@@ -704,6 +762,9 @@
       </c>
       <c r="L2" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -722,12 +783,15 @@
       <c r="E3" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="5" t="s">
         <v>52</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
       </c>
       <c r="M3">
         <f>5*G3+10*SUM(H3:L3)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -746,7 +810,7 @@
       <c r="E4" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="5" t="s">
         <v>54</v>
       </c>
       <c r="H4">
@@ -765,16 +829,16 @@
         <v>3</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M13" si="0">5*G4+10*SUM(H4:L4)</f>
+        <f t="shared" ref="M4" si="0">5*G4+10*SUM(H4:L4)</f>
         <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
@@ -783,106 +847,139 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>35</v>
+        <v>58</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
       </c>
       <c r="M5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="M5:M15" si="1">5*G5+10*SUM(H5:L5)</f>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6" si="2">5*G6+10*SUM(H6:L6)</f>
         <v>50</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>3</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
-        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
       </c>
       <c r="M7">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
       </c>
       <c r="M8">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -891,22 +988,22 @@
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9">
+        <v>28</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9">
         <v>1</v>
       </c>
       <c r="M9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
@@ -915,22 +1012,22 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10">
+        <v>31</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10">
         <v>1</v>
       </c>
       <c r="M10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>17</v>
@@ -939,61 +1036,109 @@
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11">
+        <v>19</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11">
         <v>1</v>
       </c>
       <c r="M11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
+        <v>22</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
       </c>
       <c r="M12">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>44</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>45</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>41</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E15" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="0"/>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -1008,19 +1153,112 @@
     <mergeCell ref="F1:F2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F6" r:id="rId1" xr:uid="{039AB0D7-86A6-4A32-AF57-618F1E37F5D3}"/>
+    <hyperlink ref="F8" r:id="rId1" xr:uid="{039AB0D7-86A6-4A32-AF57-618F1E37F5D3}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{F20DAD74-8BE0-406B-882C-4E0D5E8DFD34}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{FA5BD66D-18DB-40EA-AE0A-4A100C649553}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{316428AE-1EA7-42DF-8EB0-CC07262C7ACC}"/>
-    <hyperlink ref="F9" r:id="rId5" xr:uid="{7F907E7C-275A-4944-8E0F-FFFDA99736A2}"/>
-    <hyperlink ref="F10" r:id="rId6" xr:uid="{99D1EA71-887A-4C64-9685-916EFA32D8DB}"/>
-    <hyperlink ref="F11" r:id="rId7" xr:uid="{5E113AB2-CDB1-478F-8D05-BC686DA28460}"/>
-    <hyperlink ref="F7" r:id="rId8" xr:uid="{6EEE6CA7-8671-4C38-8316-9A60E6B53DF2}"/>
-    <hyperlink ref="F8" r:id="rId9" xr:uid="{46C7FD88-64EE-4334-8843-14F9B30670BD}"/>
-    <hyperlink ref="F12" r:id="rId10" xr:uid="{CBB883D2-BF2F-4E98-BDBF-DCE319934222}"/>
-    <hyperlink ref="F13" r:id="rId11" xr:uid="{4E0AB10C-A691-441D-86B6-B6CEC945366B}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{FA5BD66D-18DB-40EA-AE0A-4A100C649553}"/>
+    <hyperlink ref="F7" r:id="rId4" xr:uid="{316428AE-1EA7-42DF-8EB0-CC07262C7ACC}"/>
+    <hyperlink ref="F11" r:id="rId5" xr:uid="{7F907E7C-275A-4944-8E0F-FFFDA99736A2}"/>
+    <hyperlink ref="F12" r:id="rId6" xr:uid="{99D1EA71-887A-4C64-9685-916EFA32D8DB}"/>
+    <hyperlink ref="F13" r:id="rId7" xr:uid="{5E113AB2-CDB1-478F-8D05-BC686DA28460}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{6EEE6CA7-8671-4C38-8316-9A60E6B53DF2}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{46C7FD88-64EE-4334-8843-14F9B30670BD}"/>
+    <hyperlink ref="F14" r:id="rId10" xr:uid="{CBB883D2-BF2F-4E98-BDBF-DCE319934222}"/>
+    <hyperlink ref="F15" r:id="rId11" xr:uid="{4E0AB10C-A691-441D-86B6-B6CEC945366B}"/>
+    <hyperlink ref="F4" r:id="rId12" xr:uid="{F9E0F9D4-D983-4BCE-9C96-B76629E46BD5}"/>
+    <hyperlink ref="F6" r:id="rId13" xr:uid="{DD3A24C1-9A29-4508-BE27-4E3D35E4016F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A11FD6B-778D-4B5E-B5DB-1C27C92CB58B}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="35.90625" customWidth="1"/>
+    <col min="2" max="2" width="45.7265625" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shurik\Dropbox\Robotics\github\logicbits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C7D96D-C447-4A6D-A3E2-EE6DAF2AEA7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9EE457-E0E9-4454-AEEF-2F1A6D1D938D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="1540" windowWidth="15900" windowHeight="9160" xr2:uid="{F8763408-5542-45D1-81EF-C240F4AD03E8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -206,15 +206,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>1 kOhm</t>
-  </si>
-  <si>
-    <t>RC0603FR-071KL</t>
-  </si>
-  <si>
-    <t>C22548</t>
   </si>
   <si>
     <t>1 uF</t>
@@ -354,6 +345,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -365,12 +362,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -687,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F24C5D-7314-404A-8AC2-3BD7FC5A1E33}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -703,48 +694,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="8"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="10"/>
       <c r="M1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="12"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="8"/>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
@@ -764,7 +755,7 @@
         <v>11</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -813,6 +804,9 @@
       <c r="F4" s="5" t="s">
         <v>54</v>
       </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
       <c r="H4">
         <v>2</v>
       </c>
@@ -830,15 +824,15 @@
       </c>
       <c r="M4">
         <f t="shared" ref="M4" si="0">5*G4+10*SUM(H4:L4)</f>
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
@@ -847,29 +841,29 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M15" si="1">5*G5+10*SUM(H5:L5)</f>
-        <v>140</v>
+        <f t="shared" ref="M5" si="1">5*G5+10*SUM(H5:L5)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -877,7 +871,7 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
@@ -886,100 +880,85 @@
         <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6" si="2">5*G6+10*SUM(H6:L6)</f>
-        <v>50</v>
+        <f t="shared" ref="M6:M14" si="2">5*G6+10*SUM(H6:L6)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
       <c r="M7">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <f t="shared" si="1"/>
-        <v>155</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -988,22 +967,22 @@
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9">
+        <v>32</v>
+      </c>
+      <c r="I9">
         <v>1</v>
       </c>
       <c r="M9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
@@ -1012,22 +991,22 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10">
         <v>1</v>
       </c>
       <c r="M10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>17</v>
@@ -1036,22 +1015,22 @@
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11">
+        <v>23</v>
+      </c>
+      <c r="K11">
         <v>1</v>
       </c>
       <c r="M11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>17</v>
@@ -1060,85 +1039,61 @@
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12">
+        <v>26</v>
+      </c>
+      <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
       </c>
       <c r="M13">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -1153,22 +1108,21 @@
     <mergeCell ref="F1:F2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" xr:uid="{039AB0D7-86A6-4A32-AF57-618F1E37F5D3}"/>
+    <hyperlink ref="F7" r:id="rId1" xr:uid="{039AB0D7-86A6-4A32-AF57-618F1E37F5D3}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{F20DAD74-8BE0-406B-882C-4E0D5E8DFD34}"/>
-    <hyperlink ref="F5" r:id="rId3" xr:uid="{FA5BD66D-18DB-40EA-AE0A-4A100C649553}"/>
-    <hyperlink ref="F7" r:id="rId4" xr:uid="{316428AE-1EA7-42DF-8EB0-CC07262C7ACC}"/>
-    <hyperlink ref="F11" r:id="rId5" xr:uid="{7F907E7C-275A-4944-8E0F-FFFDA99736A2}"/>
-    <hyperlink ref="F12" r:id="rId6" xr:uid="{99D1EA71-887A-4C64-9685-916EFA32D8DB}"/>
-    <hyperlink ref="F13" r:id="rId7" xr:uid="{5E113AB2-CDB1-478F-8D05-BC686DA28460}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{6EEE6CA7-8671-4C38-8316-9A60E6B53DF2}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{46C7FD88-64EE-4334-8843-14F9B30670BD}"/>
-    <hyperlink ref="F14" r:id="rId10" xr:uid="{CBB883D2-BF2F-4E98-BDBF-DCE319934222}"/>
-    <hyperlink ref="F15" r:id="rId11" xr:uid="{4E0AB10C-A691-441D-86B6-B6CEC945366B}"/>
-    <hyperlink ref="F4" r:id="rId12" xr:uid="{F9E0F9D4-D983-4BCE-9C96-B76629E46BD5}"/>
-    <hyperlink ref="F6" r:id="rId13" xr:uid="{DD3A24C1-9A29-4508-BE27-4E3D35E4016F}"/>
+    <hyperlink ref="F6" r:id="rId3" xr:uid="{316428AE-1EA7-42DF-8EB0-CC07262C7ACC}"/>
+    <hyperlink ref="F10" r:id="rId4" xr:uid="{7F907E7C-275A-4944-8E0F-FFFDA99736A2}"/>
+    <hyperlink ref="F11" r:id="rId5" xr:uid="{99D1EA71-887A-4C64-9685-916EFA32D8DB}"/>
+    <hyperlink ref="F12" r:id="rId6" xr:uid="{5E113AB2-CDB1-478F-8D05-BC686DA28460}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{6EEE6CA7-8671-4C38-8316-9A60E6B53DF2}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{46C7FD88-64EE-4334-8843-14F9B30670BD}"/>
+    <hyperlink ref="F13" r:id="rId9" xr:uid="{CBB883D2-BF2F-4E98-BDBF-DCE319934222}"/>
+    <hyperlink ref="F14" r:id="rId10" xr:uid="{4E0AB10C-A691-441D-86B6-B6CEC945366B}"/>
+    <hyperlink ref="F4" r:id="rId11" xr:uid="{F9E0F9D4-D983-4BCE-9C96-B76629E46BD5}"/>
+    <hyperlink ref="F5" r:id="rId12" xr:uid="{DD3A24C1-9A29-4508-BE27-4E3D35E4016F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -1193,21 +1147,21 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -1218,10 +1172,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -1232,10 +1186,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -1246,10 +1200,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C5">
         <v>200</v>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shurik\Dropbox\Robotics\github\logicbits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9EE457-E0E9-4454-AEEF-2F1A6D1D938D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D646DC0F-F77F-474C-BDDE-29C60A064632}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="1540" windowWidth="15900" windowHeight="9160" xr2:uid="{F8763408-5542-45D1-81EF-C240F4AD03E8}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="15900" windowHeight="9160" xr2:uid="{F8763408-5542-45D1-81EF-C240F4AD03E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Electronic components" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -251,6 +251,21 @@
   </si>
   <si>
     <t>https://www.aliexpress.com/item/32795058236.html</t>
+  </si>
+  <si>
+    <t>SN74LVC1G132DBVR</t>
+  </si>
+  <si>
+    <t>C403723</t>
+  </si>
+  <si>
+    <t>C83630</t>
+  </si>
+  <si>
+    <t>MC74VHC1G32DTT1G</t>
+  </si>
+  <si>
+    <t>ON Semiconductor</t>
   </si>
 </sst>
 </file>
@@ -329,7 +344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -362,6 +377,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -678,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F24C5D-7314-404A-8AC2-3BD7FC5A1E33}">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -889,7 +919,7 @@
         <v>3</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M14" si="2">5*G6+10*SUM(H6:L6)</f>
+        <f t="shared" ref="M6:M16" si="2">5*G6+10*SUM(H6:L6)</f>
         <v>15</v>
       </c>
     </row>
@@ -956,11 +986,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="9" spans="1:18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
@@ -980,33 +1011,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="10" spans="1:18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>16</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>17</v>
@@ -1015,12 +1036,12 @@
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11">
+        <v>20</v>
+      </c>
+      <c r="J11">
         <v>1</v>
       </c>
       <c r="M11">
@@ -1028,9 +1049,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>17</v>
@@ -1039,12 +1060,12 @@
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12">
+        <v>23</v>
+      </c>
+      <c r="K12">
         <v>1</v>
       </c>
       <c r="M12">
@@ -1052,53 +1073,97 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>40</v>
+    <row r="13" spans="1:18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
       </c>
       <c r="M13">
         <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="15"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="16" spans="1:18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>44</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>45</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D16" t="s">
         <v>41</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E16" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="M14">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="M16">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="12">
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="G1:L1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -1111,18 +1176,20 @@
     <hyperlink ref="F7" r:id="rId1" xr:uid="{039AB0D7-86A6-4A32-AF57-618F1E37F5D3}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{F20DAD74-8BE0-406B-882C-4E0D5E8DFD34}"/>
     <hyperlink ref="F6" r:id="rId3" xr:uid="{316428AE-1EA7-42DF-8EB0-CC07262C7ACC}"/>
-    <hyperlink ref="F10" r:id="rId4" xr:uid="{7F907E7C-275A-4944-8E0F-FFFDA99736A2}"/>
-    <hyperlink ref="F11" r:id="rId5" xr:uid="{99D1EA71-887A-4C64-9685-916EFA32D8DB}"/>
-    <hyperlink ref="F12" r:id="rId6" xr:uid="{5E113AB2-CDB1-478F-8D05-BC686DA28460}"/>
+    <hyperlink ref="F11" r:id="rId4" xr:uid="{7F907E7C-275A-4944-8E0F-FFFDA99736A2}"/>
+    <hyperlink ref="F12" r:id="rId5" xr:uid="{99D1EA71-887A-4C64-9685-916EFA32D8DB}"/>
+    <hyperlink ref="F13" r:id="rId6" xr:uid="{5E113AB2-CDB1-478F-8D05-BC686DA28460}"/>
     <hyperlink ref="F8" r:id="rId7" xr:uid="{6EEE6CA7-8671-4C38-8316-9A60E6B53DF2}"/>
     <hyperlink ref="F9" r:id="rId8" xr:uid="{46C7FD88-64EE-4334-8843-14F9B30670BD}"/>
-    <hyperlink ref="F13" r:id="rId9" xr:uid="{CBB883D2-BF2F-4E98-BDBF-DCE319934222}"/>
-    <hyperlink ref="F14" r:id="rId10" xr:uid="{4E0AB10C-A691-441D-86B6-B6CEC945366B}"/>
+    <hyperlink ref="F15" r:id="rId9" xr:uid="{CBB883D2-BF2F-4E98-BDBF-DCE319934222}"/>
+    <hyperlink ref="F16" r:id="rId10" xr:uid="{4E0AB10C-A691-441D-86B6-B6CEC945366B}"/>
     <hyperlink ref="F4" r:id="rId11" xr:uid="{F9E0F9D4-D983-4BCE-9C96-B76629E46BD5}"/>
     <hyperlink ref="F5" r:id="rId12" xr:uid="{DD3A24C1-9A29-4508-BE27-4E3D35E4016F}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{ECA17705-59E1-4063-A298-4D9CDE6C41E4}"/>
+    <hyperlink ref="F10" r:id="rId14" xr:uid="{E2594BCF-A431-47D3-A40B-81B0A31DFAA2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
 </worksheet>
 </file>
 

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shurik\Dropbox\Robotics\github\logicbits\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shurik/Dropbox/Robotics/github/logicbits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D646DC0F-F77F-474C-BDDE-29C60A064632}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C51690B-6DE3-CD44-B68F-3A8CBE21E5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="15900" windowHeight="9160" xr2:uid="{F8763408-5542-45D1-81EF-C240F4AD03E8}"/>
+    <workbookView minimized="1" xWindow="380" yWindow="500" windowWidth="15900" windowHeight="9160" xr2:uid="{F8763408-5542-45D1-81EF-C240F4AD03E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Electronic components" sheetId="1" r:id="rId1"/>
@@ -350,21 +350,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -375,23 +390,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -710,46 +710,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F24C5D-7314-404A-8AC2-3BD7FC5A1E33}">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.36328125" customWidth="1"/>
-    <col min="4" max="4" width="20.90625" customWidth="1"/>
-    <col min="5" max="5" width="21.1796875" customWidth="1"/>
-    <col min="7" max="12" width="6.08984375" customWidth="1"/>
-    <col min="13" max="13" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="7" max="12" width="6.1640625" customWidth="1"/>
+    <col min="13" max="13" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="E1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="10"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="15"/>
       <c r="M1" s="6" t="s">
         <v>56</v>
       </c>
@@ -759,13 +759,13 @@
       <c r="Q1" s="7"/>
       <c r="R1" s="8"/>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
@@ -788,7 +788,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -815,7 +815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -857,7 +857,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -896,7 +896,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -923,7 +923,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -962,7 +962,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -986,12 +986,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
@@ -1011,10 +1011,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="13"/>
       <c r="D10" t="s">
         <v>76</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1073,12 +1073,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D13" t="s">
@@ -1098,10 +1098,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="15"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="11"/>
       <c r="D14" t="s">
         <v>18</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -1159,11 +1159,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
     <mergeCell ref="G1:L1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -1171,6 +1166,11 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F7" r:id="rId1" xr:uid="{039AB0D7-86A6-4A32-AF57-618F1E37F5D3}"/>
@@ -1201,15 +1201,15 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.90625" customWidth="1"/>
-    <col min="2" max="2" width="45.7265625" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" customWidth="1"/>
+    <col min="1" max="1" width="35.83203125" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>65</v>
       </c>
